--- a/nmadb/482734.xlsx
+++ b/nmadb/482734.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="11565"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="MTMdata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -216,8 +216,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,48 +715,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -769,7 +769,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -843,7 +843,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -878,7 +877,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1054,14 +1052,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
@@ -1070,7 +1068,7 @@
     <col min="9" max="9" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -1097,7 +1095,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1993</v>
       </c>
@@ -1117,7 +1115,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
       <c r="D3" s="1">
         <v>4</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2004</v>
       </c>
@@ -1160,7 +1161,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
@@ -1177,7 +1181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>1979</v>
       </c>
@@ -1203,7 +1207,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
       <c r="D7" s="1">
         <v>4</v>
       </c>
@@ -1220,7 +1227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>1979</v>
       </c>
@@ -1240,7 +1247,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
       <c r="D9" s="1">
         <v>4</v>
       </c>
@@ -1251,7 +1261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>1984</v>
       </c>
@@ -1271,7 +1281,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
       <c r="D11" s="1">
         <v>4</v>
       </c>
@@ -1282,7 +1295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>1979</v>
       </c>
@@ -1302,7 +1315,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
       <c r="D13" s="1">
         <v>4</v>
       </c>
@@ -1313,7 +1329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>1996</v>
       </c>
@@ -1333,7 +1349,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
+      <c r="C15" s="1">
+        <v>7</v>
+      </c>
       <c r="D15" s="1">
         <v>4</v>
       </c>
@@ -1344,7 +1363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>1996</v>
       </c>
@@ -1364,7 +1383,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
+      <c r="C17" s="1">
+        <v>8</v>
+      </c>
       <c r="D17" s="1">
         <v>4</v>
       </c>
@@ -1375,7 +1397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>1996</v>
       </c>
@@ -1395,7 +1417,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
+      <c r="C19" s="1">
+        <v>9</v>
+      </c>
       <c r="D19" s="1">
         <v>4</v>
       </c>
@@ -1406,7 +1431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>1996</v>
       </c>
@@ -1426,7 +1451,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
+      <c r="C21" s="1">
+        <v>10</v>
+      </c>
       <c r="D21" s="1">
         <v>4</v>
       </c>
@@ -1437,7 +1465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>1996</v>
       </c>
@@ -1457,7 +1485,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
+      <c r="C23" s="1">
+        <v>11</v>
+      </c>
       <c r="D23" s="1">
         <v>4</v>
       </c>
@@ -1468,7 +1499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>1996</v>
       </c>
@@ -1488,7 +1519,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
+      <c r="C25" s="1">
+        <v>12</v>
+      </c>
       <c r="D25" s="1">
         <v>4</v>
       </c>
@@ -1499,7 +1533,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>1996</v>
       </c>
@@ -1519,7 +1553,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
+      <c r="C27" s="1">
+        <v>13</v>
+      </c>
       <c r="D27" s="1">
         <v>4</v>
       </c>
@@ -1530,7 +1567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>1996</v>
       </c>
@@ -1550,7 +1587,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
+      <c r="C29" s="1">
+        <v>14</v>
+      </c>
       <c r="D29" s="1">
         <v>4</v>
       </c>
@@ -1561,7 +1601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>1996</v>
       </c>
@@ -1581,7 +1621,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
+      <c r="C31" s="1">
+        <v>15</v>
+      </c>
       <c r="D31" s="1">
         <v>4</v>
       </c>
@@ -1592,7 +1635,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>2002</v>
       </c>
@@ -1612,7 +1655,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
+      <c r="C33" s="1">
+        <v>16</v>
+      </c>
       <c r="D33" s="1">
         <v>4</v>
       </c>
@@ -1623,7 +1669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>1987</v>
       </c>
@@ -1643,7 +1689,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
+      <c r="C35" s="1">
+        <v>17</v>
+      </c>
       <c r="D35" s="1">
         <v>4</v>
       </c>
@@ -1654,7 +1703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>2008</v>
       </c>
@@ -1674,7 +1723,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
+      <c r="C37" s="1">
+        <v>18</v>
+      </c>
       <c r="D37" s="1">
         <v>4</v>
       </c>
@@ -1685,7 +1737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>1977</v>
       </c>
@@ -1705,7 +1757,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
+      <c r="C39" s="1">
+        <v>19</v>
+      </c>
       <c r="D39" s="1">
         <v>3</v>
       </c>
@@ -1716,7 +1771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>2006</v>
       </c>
@@ -1736,7 +1791,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
+      <c r="C41" s="1">
+        <v>20</v>
+      </c>
       <c r="D41" s="1">
         <v>4</v>
       </c>
@@ -1747,7 +1805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>2009</v>
       </c>
@@ -1767,7 +1825,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
+      <c r="C43" s="1">
+        <v>21</v>
+      </c>
       <c r="D43" s="1">
         <v>4</v>
       </c>
@@ -1778,7 +1839,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>2004</v>
       </c>
@@ -1798,7 +1859,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
+      <c r="C45" s="1">
+        <v>22</v>
+      </c>
       <c r="D45" s="1">
         <v>4</v>
       </c>
@@ -1809,7 +1873,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>1980</v>
       </c>
@@ -1829,7 +1893,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
+      <c r="C47" s="1">
+        <v>23</v>
+      </c>
       <c r="D47" s="1">
         <v>4</v>
       </c>
@@ -1840,7 +1907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>2010</v>
       </c>
@@ -1860,7 +1927,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
+      <c r="C49" s="1">
+        <v>24</v>
+      </c>
       <c r="D49" s="1">
         <v>4</v>
       </c>
@@ -1871,7 +1941,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>1981</v>
       </c>
@@ -1891,7 +1961,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
+      <c r="C51" s="1">
+        <v>25</v>
+      </c>
       <c r="D51" s="1">
         <v>4</v>
       </c>
@@ -1902,7 +1975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>1982</v>
       </c>
@@ -1922,7 +1995,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
+      <c r="C53" s="1">
+        <v>26</v>
+      </c>
       <c r="D53" s="1">
         <v>4</v>
       </c>
@@ -1933,7 +2009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>1984</v>
       </c>
@@ -1953,7 +2029,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
+      <c r="C55" s="1">
+        <v>27</v>
+      </c>
       <c r="D55" s="1">
         <v>4</v>
       </c>
@@ -1964,7 +2043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>2003</v>
       </c>
@@ -1984,7 +2063,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
+      <c r="C57" s="1">
+        <v>28</v>
+      </c>
       <c r="D57" s="1">
         <v>4</v>
       </c>
@@ -1995,7 +2077,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>1986</v>
       </c>
@@ -2015,7 +2097,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
+      <c r="C59" s="1">
+        <v>29</v>
+      </c>
       <c r="D59" s="1">
         <v>4</v>
       </c>
@@ -2026,7 +2111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>1989</v>
       </c>
@@ -2046,7 +2131,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
+      <c r="C61" s="1">
+        <v>30</v>
+      </c>
       <c r="D61" s="1">
         <v>4</v>
       </c>
@@ -2057,7 +2145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>1993</v>
       </c>
@@ -2077,7 +2165,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
+      <c r="C63" s="1">
+        <v>31</v>
+      </c>
       <c r="D63" s="1">
         <v>4</v>
       </c>
@@ -2088,7 +2179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>1977</v>
       </c>
@@ -2108,7 +2199,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
+      <c r="C65" s="1">
+        <v>32</v>
+      </c>
       <c r="D65" s="1">
         <v>4</v>
       </c>
@@ -2119,7 +2213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>1980</v>
       </c>
@@ -2139,7 +2233,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
+      <c r="C67" s="1">
+        <v>33</v>
+      </c>
       <c r="D67" s="1">
         <v>4</v>
       </c>
@@ -2150,7 +2247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>2006</v>
       </c>
@@ -2170,7 +2267,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
+      <c r="C69" s="1">
+        <v>34</v>
+      </c>
       <c r="D69" s="1">
         <v>4</v>
       </c>
@@ -2181,7 +2281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -2201,7 +2301,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
+      <c r="C71" s="1">
+        <v>35</v>
+      </c>
       <c r="D71" s="1">
         <v>3</v>
       </c>
@@ -2212,7 +2315,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
+      <c r="C72" s="1">
+        <v>35</v>
+      </c>
       <c r="D72" s="1">
         <v>4</v>
       </c>
@@ -2223,7 +2329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>1992</v>
       </c>
@@ -2243,7 +2349,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
+      <c r="C74" s="1">
+        <v>36</v>
+      </c>
       <c r="D74" s="1">
         <v>4</v>
       </c>
@@ -2254,7 +2363,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>1985</v>
       </c>
@@ -2274,7 +2383,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
+      <c r="C76" s="1">
+        <v>37</v>
+      </c>
       <c r="D76" s="1">
         <v>4</v>
       </c>
@@ -2285,7 +2397,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>1983</v>
       </c>
@@ -2305,7 +2417,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
+      <c r="C78" s="1">
+        <v>38</v>
+      </c>
       <c r="D78" s="1">
         <v>4</v>
       </c>
@@ -2316,7 +2431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>1988</v>
       </c>
@@ -2336,7 +2451,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
+      <c r="C80" s="1">
+        <v>39</v>
+      </c>
       <c r="D80" s="1">
         <v>4</v>
       </c>
@@ -2347,7 +2465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>2009</v>
       </c>
@@ -2367,7 +2485,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
+      <c r="C82" s="1">
+        <v>40</v>
+      </c>
       <c r="D82" s="1">
         <v>4</v>
       </c>
@@ -2378,7 +2499,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>1977</v>
       </c>
@@ -2398,7 +2519,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
+      <c r="C84" s="1">
+        <v>41</v>
+      </c>
       <c r="D84" s="1">
         <v>4</v>
       </c>
@@ -2409,7 +2533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>1990</v>
       </c>
@@ -2429,7 +2553,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
+      <c r="C86" s="1">
+        <v>42</v>
+      </c>
       <c r="D86" s="1">
         <v>4</v>
       </c>
@@ -2440,7 +2567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>1982</v>
       </c>
@@ -2460,7 +2587,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
+      <c r="C88" s="1">
+        <v>43</v>
+      </c>
       <c r="D88" s="1">
         <v>4</v>
       </c>
@@ -2471,7 +2601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>1983</v>
       </c>
@@ -2491,7 +2621,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
+      <c r="C90" s="1">
+        <v>44</v>
+      </c>
       <c r="D90" s="1">
         <v>4</v>
       </c>
@@ -2502,7 +2635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>1991</v>
       </c>
@@ -2522,7 +2655,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
+      <c r="C92" s="1">
+        <v>45</v>
+      </c>
       <c r="D92" s="1">
         <v>4</v>
       </c>
@@ -2533,7 +2669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>2008</v>
       </c>
@@ -2553,7 +2689,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
+      <c r="C94" s="1">
+        <v>46</v>
+      </c>
       <c r="D94" s="1">
         <v>4</v>
       </c>
@@ -2564,7 +2703,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>2008</v>
       </c>
@@ -2584,7 +2723,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
+      <c r="C96" s="1">
+        <v>47</v>
+      </c>
       <c r="D96" s="1">
         <v>4</v>
       </c>
@@ -2595,7 +2737,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>2000</v>
       </c>
@@ -2615,7 +2757,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
+      <c r="C98" s="1">
+        <v>48</v>
+      </c>
       <c r="D98" s="1">
         <v>4</v>
       </c>
